--- a/script/Journal-Articles.xlsx
+++ b/script/Journal-Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionapeng/Downloads/Blueprint/idontmind/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BD23A-7F85-0B4C-B71D-A103DA55F905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FE7CE-F736-374B-A1AF-CB280C029BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="7060" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
